--- a/2. Báo cáo-Bàn giao/2. bộ phận bảo hành/Năm 2021/Báo giá linh kiện BH.xlsx
+++ b/2. Báo cáo-Bàn giao/2. bộ phận bảo hành/Năm 2021/Báo giá linh kiện BH.xlsx
@@ -572,9 +572,6 @@
     <t>Bộ nhớ LE / V</t>
   </si>
   <si>
-    <t>200,000(TECHGLOBAL)</t>
-  </si>
-  <si>
     <t>Phòng Bảo Hành</t>
   </si>
   <si>
@@ -603,6 +600,9 @@
   </si>
   <si>
     <t>Hà Nội, ngày 13 tháng 05 Năm 2021</t>
+  </si>
+  <si>
+    <t>(TECHGLOBAL)</t>
   </si>
 </sst>
 </file>
@@ -1782,8 +1782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H93" sqref="H93"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1818,7 +1818,7 @@
       <c r="A2" s="3"/>
       <c r="B2" s="67"/>
       <c r="C2" s="89" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D2" s="81"/>
       <c r="E2" s="81"/>
@@ -1844,7 +1844,7 @@
       <c r="A4" s="3"/>
       <c r="B4" s="67"/>
       <c r="C4" s="95" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D4" s="96"/>
       <c r="E4" s="97"/>
@@ -1857,7 +1857,7 @@
       <c r="A5" s="5"/>
       <c r="B5" s="67"/>
       <c r="C5" s="86" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D5" s="87"/>
       <c r="E5" s="87"/>
@@ -1934,7 +1934,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H10" s="27" t="s">
         <v>175</v>
@@ -2002,13 +2002,13 @@
         <v>3</v>
       </c>
       <c r="B13" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="C13" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="D13" s="75" t="s">
         <v>188</v>
-      </c>
-      <c r="D13" s="75" t="s">
-        <v>189</v>
       </c>
       <c r="E13" s="25" t="s">
         <v>128</v>
@@ -2076,7 +2076,7 @@
         <v>250000</v>
       </c>
       <c r="I15" s="74" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2206,7 +2206,7 @@
         <v>312500</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2236,7 +2236,7 @@
         <v>187500</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2266,7 +2266,7 @@
         <v>250000</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2296,7 +2296,7 @@
         <v>250000</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2351,7 +2351,7 @@
         <v>125000</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2381,7 +2381,7 @@
         <v>150000</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3934,7 +3934,7 @@
       <c r="F89" s="45"/>
       <c r="G89" s="45"/>
       <c r="H89" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I89" s="56"/>
       <c r="J89" s="11"/>

--- a/2. Báo cáo-Bàn giao/2. bộ phận bảo hành/Năm 2021/Báo giá linh kiện BH.xlsx
+++ b/2. Báo cáo-Bàn giao/2. bộ phận bảo hành/Năm 2021/Báo giá linh kiện BH.xlsx
@@ -1782,8 +1782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>

--- a/2. Báo cáo-Bàn giao/2. bộ phận bảo hành/Năm 2021/Báo giá linh kiện BH.xlsx
+++ b/2. Báo cáo-Bàn giao/2. bộ phận bảo hành/Năm 2021/Báo giá linh kiện BH.xlsx
@@ -1783,7 +1783,7 @@
   <dimension ref="A1:L95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>

--- a/2. Báo cáo-Bàn giao/2. bộ phận bảo hành/Năm 2021/Báo giá linh kiện BH.xlsx
+++ b/2. Báo cáo-Bàn giao/2. bộ phận bảo hành/Năm 2021/Báo giá linh kiện BH.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\2. Báo cáo-Bàn giao\2. bộ phận bảo hành\Năm 2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VNET\2. Báo cáo-Bàn giao\2. bộ phận bảo hành\Năm 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1782,8 +1782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>

--- a/2. Báo cáo-Bàn giao/2. bộ phận bảo hành/Năm 2021/Báo giá linh kiện BH.xlsx
+++ b/2. Báo cáo-Bàn giao/2. bộ phận bảo hành/Năm 2021/Báo giá linh kiện BH.xlsx
@@ -1782,8 +1782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>

--- a/2. Báo cáo-Bàn giao/2. bộ phận bảo hành/Năm 2021/Báo giá linh kiện BH.xlsx
+++ b/2. Báo cáo-Bàn giao/2. bộ phận bảo hành/Năm 2021/Báo giá linh kiện BH.xlsx
@@ -1782,8 +1782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>

--- a/2. Báo cáo-Bàn giao/2. bộ phận bảo hành/Năm 2021/Báo giá linh kiện BH.xlsx
+++ b/2. Báo cáo-Bàn giao/2. bộ phận bảo hành/Năm 2021/Báo giá linh kiện BH.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VNET\2. Báo cáo-Bàn giao\2. bộ phận bảo hành\Năm 2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VNETGPS\VNET\2. Báo cáo-Bàn giao\2. bộ phận bảo hành\Năm 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1782,7 +1782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>

--- a/2. Báo cáo-Bàn giao/2. bộ phận bảo hành/Năm 2021/Báo giá linh kiện BH.xlsx
+++ b/2. Báo cáo-Bàn giao/2. bộ phận bảo hành/Năm 2021/Báo giá linh kiện BH.xlsx
@@ -1782,8 +1782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
